--- a/Content/Anna/ONV/Begroting_lj2.xlsx
+++ b/Content/Anna/ONV/Begroting_lj2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Anna van der wijden\Documents\Github\UnrealMythe\Content\Anna\ONV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna van der Wijden\Documents\Github\UnrealMythe\Content\Anna\ONV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9ABA94-DDFE-43DE-8AF9-F201DAD3142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E435F9-20C8-42EB-AA3F-1506A522B79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investeringsbegroting" sheetId="7" r:id="rId1"/>
@@ -34,17 +34,26 @@
     <definedName name="Financiële_plan_ROZ_7_10_16_printversie" localSheetId="5">Liquiditeit!$A$1:$J$27</definedName>
     <definedName name="Financiële_plan_ROZ_7_10_16_prive" localSheetId="4">Prive!$A$1:$H$37</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="141">
   <si>
     <t>Investeringsbegroting (excl. BTW)</t>
   </si>
@@ -571,6 +580,15 @@
   </si>
   <si>
     <t>Opmerkingen</t>
+  </si>
+  <si>
+    <t>Software: Zbrush (€40 p.p.) + Maya (€279 p.p.) + Adobe pakket (€60,49 p.p) = €379,49 x 3 = 1.138,47 per maand                           Laptop per stuk: €1.099</t>
+  </si>
+  <si>
+    <t>379,49x3x12=€13661,64</t>
+  </si>
+  <si>
+    <t>In jaar 1 verwachten we 500 games te verkopen, dan komen we uit op €10.000 euro. In een jaar zal het personeel 252 uur werken. (252x€35= €8820)</t>
   </si>
 </sst>
 </file>
@@ -1359,21 +1377,21 @@
   <dimension ref="B2:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="66" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="14.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="23.4">
+    <row r="2" spans="2:6" ht="23.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1416,8 +1434,8 @@
         <v>133</v>
       </c>
       <c r="C7" s="2">
-        <f>1099*5</f>
-        <v>5495</v>
+        <f>1099*3</f>
+        <v>3297</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="68">
@@ -1445,7 +1463,7 @@
         <v>135</v>
       </c>
       <c r="C9" s="2">
-        <v>451.5</v>
+        <v>1138</v>
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="68">
@@ -1459,7 +1477,7 @@
       </c>
       <c r="C10" s="11">
         <f>SUM(C6:C9)</f>
-        <v>6176.5</v>
+        <v>4665</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1531,7 +1549,7 @@
       </c>
       <c r="C20" s="11">
         <f>C10+C18</f>
-        <v>6176.5</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -1550,7 +1568,9 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="2:7" ht="114" customHeight="1">
-      <c r="B26" s="73"/>
+      <c r="B26" s="73" t="s">
+        <v>138</v>
+      </c>
       <c r="C26" s="73"/>
       <c r="D26" s="73"/>
       <c r="E26" s="61"/>
@@ -1571,25 +1591,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:C59"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="29"/>
-    <col min="2" max="2" width="40.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="29"/>
+    <col min="1" max="1" width="9.140625" style="29"/>
+    <col min="2" max="2" width="40.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="23.4">
+    <row r="2" spans="2:5" ht="23.25">
       <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18">
+    <row r="3" spans="2:5" ht="18.75">
       <c r="B3" s="53" t="s">
         <v>20</v>
       </c>
@@ -1597,13 +1617,13 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="2:5" ht="14.4">
+    <row r="4" spans="2:5" ht="14.25">
       <c r="B4" s="53"/>
       <c r="C4" s="30"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="2:5" ht="14.4">
+    <row r="5" spans="2:5" ht="14.25">
       <c r="B5" s="32" t="s">
         <v>21</v>
       </c>
@@ -1613,17 +1633,17 @@
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
     </row>
-    <row r="6" spans="2:5" ht="14.4">
+    <row r="6" spans="2:5" ht="14.25">
       <c r="B6" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>8820</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="2:5" ht="14.4">
+    <row r="7" spans="2:5" ht="14.25">
       <c r="B7" s="31" t="s">
         <v>24</v>
       </c>
@@ -1639,7 +1659,7 @@
       </c>
       <c r="C8" s="35">
         <f>SUM(C6:C7)</f>
-        <v>0</v>
+        <v>8820</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
@@ -1650,7 +1670,7 @@
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
     </row>
-    <row r="10" spans="2:5" ht="14.4">
+    <row r="10" spans="2:5" ht="14.25">
       <c r="B10" s="32" t="s">
         <v>26</v>
       </c>
@@ -1660,7 +1680,7 @@
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
     </row>
-    <row r="11" spans="2:5" ht="14.4">
+    <row r="11" spans="2:5" ht="14.25">
       <c r="B11" s="31" t="s">
         <v>27</v>
       </c>
@@ -1670,7 +1690,7 @@
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
     </row>
-    <row r="12" spans="2:5" ht="14.4">
+    <row r="12" spans="2:5" ht="14.25">
       <c r="B12" s="31" t="s">
         <v>28</v>
       </c>
@@ -1680,7 +1700,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="2:5" ht="14.4">
+    <row r="13" spans="2:5" ht="14.25">
       <c r="B13" s="31" t="s">
         <v>29</v>
       </c>
@@ -1690,7 +1710,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
     </row>
-    <row r="14" spans="2:5" ht="14.4">
+    <row r="14" spans="2:5" ht="14.25">
       <c r="B14" s="31" t="s">
         <v>30</v>
       </c>
@@ -1700,7 +1720,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="2:5" ht="14.4">
+    <row r="15" spans="2:5" ht="14.25">
       <c r="B15" s="31" t="s">
         <v>31</v>
       </c>
@@ -1710,7 +1730,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
     </row>
-    <row r="16" spans="2:5" ht="14.4">
+    <row r="16" spans="2:5" ht="14.25">
       <c r="B16" s="31" t="s">
         <v>32</v>
       </c>
@@ -1720,7 +1740,7 @@
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="2:5" ht="14.4">
+    <row r="17" spans="2:5" ht="14.25">
       <c r="B17" s="31" t="s">
         <v>33</v>
       </c>
@@ -1747,7 +1767,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="2:5" ht="14.4">
+    <row r="20" spans="2:5" ht="14.25">
       <c r="B20" s="32" t="s">
         <v>34</v>
       </c>
@@ -1757,7 +1777,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
     </row>
-    <row r="21" spans="2:5" ht="14.4">
+    <row r="21" spans="2:5" ht="14.25">
       <c r="B21" s="31" t="s">
         <v>35</v>
       </c>
@@ -1767,7 +1787,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="2:5" ht="14.4">
+    <row r="22" spans="2:5" ht="14.25">
       <c r="B22" s="31" t="s">
         <v>32</v>
       </c>
@@ -1777,7 +1797,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="2:5" ht="14.4">
+    <row r="23" spans="2:5" ht="14.25">
       <c r="B23" s="31" t="s">
         <v>36</v>
       </c>
@@ -1787,7 +1807,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="2:5" ht="14.4">
+    <row r="24" spans="2:5" ht="14.25">
       <c r="B24" s="69" t="s">
         <v>37</v>
       </c>
@@ -1814,7 +1834,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="2:5" ht="14.4">
+    <row r="27" spans="2:5" ht="14.25">
       <c r="B27" s="32" t="s">
         <v>38</v>
       </c>
@@ -1824,7 +1844,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="2:5" ht="14.4">
+    <row r="28" spans="2:5" ht="14.25">
       <c r="B28" s="31" t="s">
         <v>39</v>
       </c>
@@ -1834,7 +1854,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
     </row>
-    <row r="29" spans="2:5" ht="14.4">
+    <row r="29" spans="2:5" ht="14.25">
       <c r="B29" s="31" t="s">
         <v>40</v>
       </c>
@@ -1844,7 +1864,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
     </row>
-    <row r="30" spans="2:5" ht="14.4">
+    <row r="30" spans="2:5" ht="14.25">
       <c r="B30" s="31" t="s">
         <v>41</v>
       </c>
@@ -1854,7 +1874,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
     </row>
-    <row r="31" spans="2:5" ht="14.4">
+    <row r="31" spans="2:5" ht="14.25">
       <c r="B31" s="70" t="s">
         <v>42</v>
       </c>
@@ -1864,7 +1884,7 @@
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
     </row>
-    <row r="32" spans="2:5" ht="14.4">
+    <row r="32" spans="2:5" ht="14.25">
       <c r="B32" s="31" t="s">
         <v>43</v>
       </c>
@@ -1891,7 +1911,7 @@
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
     </row>
-    <row r="35" spans="2:5" ht="14.4">
+    <row r="35" spans="2:5" ht="14.25">
       <c r="B35" s="32" t="s">
         <v>44</v>
       </c>
@@ -1901,7 +1921,7 @@
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
     </row>
-    <row r="36" spans="2:5" ht="14.4">
+    <row r="36" spans="2:5" ht="14.25">
       <c r="B36" s="31" t="s">
         <v>45</v>
       </c>
@@ -1911,7 +1931,7 @@
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
     </row>
-    <row r="37" spans="2:5" ht="14.4">
+    <row r="37" spans="2:5" ht="14.25">
       <c r="B37" s="31" t="s">
         <v>46</v>
       </c>
@@ -1921,7 +1941,7 @@
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
     </row>
-    <row r="38" spans="2:5" ht="14.4">
+    <row r="38" spans="2:5" ht="14.25">
       <c r="B38" s="69" t="s">
         <v>47</v>
       </c>
@@ -1931,7 +1951,7 @@
       <c r="D38" s="31"/>
       <c r="E38" s="64"/>
     </row>
-    <row r="39" spans="2:5" ht="14.4">
+    <row r="39" spans="2:5" ht="14.25">
       <c r="B39" s="31" t="s">
         <v>32</v>
       </c>
@@ -1941,7 +1961,7 @@
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="2:5" ht="14.4">
+    <row r="40" spans="2:5" ht="14.25">
       <c r="B40" s="31" t="s">
         <v>48</v>
       </c>
@@ -1951,7 +1971,7 @@
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
     </row>
-    <row r="41" spans="2:5" ht="14.4">
+    <row r="41" spans="2:5" ht="14.25">
       <c r="B41" s="31" t="s">
         <v>49</v>
       </c>
@@ -1978,25 +1998,25 @@
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
     </row>
-    <row r="44" spans="2:5" ht="14.4">
+    <row r="44" spans="2:5" ht="14.25">
       <c r="B44" s="31"/>
       <c r="C44" s="30"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
     </row>
-    <row r="45" spans="2:5" ht="14.4">
+    <row r="45" spans="2:5" ht="14.25">
       <c r="B45" s="31"/>
       <c r="C45" s="30"/>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
     </row>
-    <row r="46" spans="2:5" ht="14.4">
+    <row r="46" spans="2:5" ht="14.25">
       <c r="B46" s="31"/>
       <c r="C46" s="30"/>
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
     </row>
-    <row r="47" spans="2:5" ht="14.4">
+    <row r="47" spans="2:5" ht="14.25">
       <c r="B47" s="32" t="s">
         <v>50</v>
       </c>
@@ -2006,7 +2026,7 @@
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
     </row>
-    <row r="48" spans="2:5" ht="14.4">
+    <row r="48" spans="2:5" ht="14.25">
       <c r="B48" s="31" t="str">
         <f>Investeringsbegroting!B6</f>
         <v>Aanschaf Bedrijfspand</v>
@@ -2018,49 +2038,47 @@
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
     </row>
-    <row r="49" spans="2:8" ht="14.4">
+    <row r="49" spans="2:8" ht="14.25">
       <c r="B49" s="31"/>
       <c r="C49" s="65"/>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
     </row>
-    <row r="50" spans="2:8" ht="14.4">
+    <row r="50" spans="2:8" ht="14.25">
       <c r="B50" s="31"/>
       <c r="C50" s="65"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
     </row>
-    <row r="51" spans="2:8" ht="14.4">
+    <row r="51" spans="2:8" ht="14.25">
       <c r="B51" s="31" t="str">
         <f>Investeringsbegroting!B7</f>
         <v xml:space="preserve">Laptops </v>
       </c>
       <c r="C51" s="65">
-        <f>Investeringsbegroting!F7</f>
-        <v>0</v>
+        <v>3297</v>
       </c>
       <c r="D51" s="31"/>
       <c r="E51" s="31"/>
     </row>
-    <row r="52" spans="2:8" ht="14.4">
+    <row r="52" spans="2:8" ht="14.25">
       <c r="B52" s="31" t="str">
         <f>Investeringsbegroting!B9</f>
         <v xml:space="preserve">Software (immateriele vaste activa) </v>
       </c>
       <c r="C52" s="65">
-        <f>Investeringsbegroting!F9</f>
-        <v>0</v>
+        <v>1138</v>
       </c>
       <c r="D52" s="31"/>
       <c r="E52" s="31"/>
     </row>
-    <row r="53" spans="2:8" ht="14.4">
+    <row r="53" spans="2:8" ht="14.25">
       <c r="B53" s="31"/>
       <c r="C53" s="65"/>
       <c r="D53" s="31"/>
       <c r="E53" s="31"/>
     </row>
-    <row r="54" spans="2:8" ht="14.4">
+    <row r="54" spans="2:8" ht="14.25">
       <c r="B54" s="31"/>
       <c r="C54" s="65"/>
       <c r="D54" s="31"/>
@@ -2070,7 +2088,9 @@
       <c r="B55" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="35"/>
+      <c r="C55" s="35">
+        <v>13255</v>
+      </c>
       <c r="D55" s="31"/>
       <c r="E55" s="31"/>
     </row>
@@ -2087,7 +2107,9 @@
       <c r="C58" s="74"/>
     </row>
     <row r="59" spans="2:8" ht="130.35" customHeight="1">
-      <c r="B59" s="75"/>
+      <c r="B59" s="75" t="s">
+        <v>139</v>
+      </c>
       <c r="C59" s="75"/>
       <c r="H59" s="51"/>
     </row>
@@ -2112,17 +2134,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="47.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5546875" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="23.4">
+    <row r="2" spans="2:7" ht="23.25">
       <c r="B2" s="5" t="s">
         <v>52</v>
       </c>
@@ -2220,7 +2242,7 @@
       </c>
       <c r="C10" s="21">
         <f>Investeringsbegroting!C7</f>
-        <v>5495</v>
+        <v>3297</v>
       </c>
       <c r="E10" s="22" t="e">
         <f>#REF!</f>
@@ -2239,7 +2261,7 @@
       </c>
       <c r="C11" s="21">
         <f>Investeringsbegroting!C9</f>
-        <v>451.5</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -2468,23 +2490,23 @@
   <dimension ref="B2:E32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B32" sqref="B32:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="57.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="57.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="23.4">
+    <row r="2" spans="2:5" ht="23.25">
       <c r="B2" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18">
+    <row r="3" spans="2:5" ht="18.75">
       <c r="B3" s="54" t="s">
         <v>64</v>
       </c>
@@ -2511,7 +2533,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -2628,7 +2650,7 @@
       </c>
       <c r="C16" s="40">
         <f>Kostenbegroting!C8</f>
-        <v>0</v>
+        <v>8820</v>
       </c>
       <c r="D16" s="40">
         <f>Kostenbegroting!D8</f>
@@ -2693,7 +2715,9 @@
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="40"/>
+      <c r="C21" s="40">
+        <v>4435</v>
+      </c>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
     </row>
@@ -2703,7 +2727,7 @@
       </c>
       <c r="C22" s="39">
         <f>SUM(C16:C21)</f>
-        <v>0</v>
+        <v>13255</v>
       </c>
       <c r="D22" s="39">
         <f>SUM(D16:D21)</f>
@@ -2743,8 +2767,10 @@
       </c>
       <c r="C31" s="78"/>
     </row>
-    <row r="32" spans="2:5" ht="140.4" customHeight="1">
-      <c r="B32" s="79"/>
+    <row r="32" spans="2:5" ht="140.44999999999999" customHeight="1">
+      <c r="B32" s="79" t="s">
+        <v>140</v>
+      </c>
       <c r="C32" s="80"/>
     </row>
   </sheetData>
@@ -2768,21 +2794,21 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="37.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="37.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="23.4">
+    <row r="2" spans="2:7" ht="23.25">
       <c r="B2" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18">
+    <row r="3" spans="2:7" ht="18.75">
       <c r="B3" s="55" t="s">
         <v>79</v>
       </c>
@@ -3024,16 +3050,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="23.4">
+    <row r="2" spans="2:13" ht="23.25">
       <c r="B2" s="5" t="s">
         <v>107</v>
       </c>
@@ -3328,15 +3354,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100087AE92E4C067F41AD153834DC9B7DE8" ma:contentTypeVersion="7" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="12b384029a5346daadf62ec8dc4ac3ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2ee545a7-fee5-4918-b9d3-0cb541575e2d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88a9affadce2478d825c239e7f707500" ns2:_="">
     <xsd:import namespace="2ee545a7-fee5-4918-b9d3-0cb541575e2d"/>
@@ -3500,6 +3517,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA38ECE-BA3B-45AF-ACF3-B89C65269BB7}">
   <ds:schemaRefs>
@@ -3510,14 +3536,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E522E2-A512-48B2-9919-44873FF47BC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC4A8132-CE53-4EF2-9C3D-5487E082218B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3533,4 +3551,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E522E2-A512-48B2-9919-44873FF47BC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>